--- a/biology/Zoologie/Eyprepocnemidinae/Eyprepocnemidinae.xlsx
+++ b/biology/Zoologie/Eyprepocnemidinae/Eyprepocnemidinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eyprepocnemidinae sont une sous-famille d'orthoptères caelifères de la famille des Acrididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (1er avril 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (1er avril 2010) :
 Amphiprosopia Uvarov, 1921
 Belonocnemis Bolívar, 1914
 Cataloipus Bolívar, 1890
@@ -567,7 +581,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brunner von Wattenwyl, 1893 : Révision du système des orthoptères et description des espèces rapportées par M. Leonardo Fea de Birmanie.  Annali del Museo Civico di Storia Naturale ‘Giacomo Doria’, Genova, vol. 33, p. 1–230 (texte original).</t>
         </is>
